--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance_simpl.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance_simpl.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="C2">
-        <v>2174</v>
+        <v>2311</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -410,10 +410,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C4">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -448,10 +448,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D5">
         <v>5</v>
